--- a/biology/Zoologie/Dendrelaphis/Dendrelaphis.xlsx
+++ b/biology/Zoologie/Dendrelaphis/Dendrelaphis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrelaphis est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrelaphis est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 46 espèces de ce genre se rencontrent en Asie, en Australie et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 46 espèces de ce genre se rencontrent en Asie, en Australie et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Boulenger indique que ces serpents présentent un corps allongé, faiblement comprimé et dont la tête se distingue nettement du cou. Leurs yeux sont grands et ont une pupille ronde.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Boulenger indique que ces serpents présentent un corps allongé, faiblement comprimé et dont la tête se distingue nettement du cou. Leurs yeux sont grands et ont une pupille ronde.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 juin 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 juin 2020) :
 Dendrelaphis andamanensis (Anderson, 1871)
 Dendrelaphis ashoki Vogel &amp; Van Rooijen, 2011
 Dendrelaphis bifrenalis (Boulenger, 1890)
@@ -649,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1890 : The Fauna of British India, Including Ceylon and Burma. Reptilia and Batrachia, p. 1-541 (texte intégral).</t>
         </is>
